--- a/data/dataPaper-I-in/arphified/Brachiopoda.xlsx
+++ b/data/dataPaper-I-in/arphified/Brachiopoda.xlsx
@@ -636,76 +636,76 @@
     <t>${catalogNumber}</t>
   </si>
   <si>
+    <t>${recordedBy}</t>
+  </si>
+  <si>
+    <t>${individualCount}</t>
+  </si>
+  <si>
+    <t>${sex}</t>
+  </si>
+  <si>
+    <t>PRESENT</t>
+  </si>
+  <si>
+    <t>${taxonName}</t>
+  </si>
+  <si>
+    <t>!references.ref</t>
+  </si>
+  <si>
+    <t>iNaturalist:${iNaturalistTaxonId}</t>
+  </si>
+  <si>
+    <t>${scientificName}</t>
+  </si>
+  <si>
+    <t>${kingdom}</t>
+  </si>
+  <si>
+    <t>${phylum}</t>
+  </si>
+  <si>
+    <t>${class}</t>
+  </si>
+  <si>
+    <t>${order}</t>
+  </si>
+  <si>
+    <t>${family}</t>
+  </si>
+  <si>
+    <t>${genus}</t>
+  </si>
+  <si>
+    <t>${subgenus}</t>
+  </si>
+  <si>
+    <t>Galiano Island</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>${locality}</t>
+  </si>
+  <si>
+    <t>${depth}</t>
+  </si>
+  <si>
+    <t>${latitude}</t>
+  </si>
+  <si>
+    <t>${longitude}</t>
+  </si>
+  <si>
     <t>Confidence: ${confidence}</t>
-  </si>
-  <si>
-    <t>${recordedBy}</t>
-  </si>
-  <si>
-    <t>${individualCount}</t>
-  </si>
-  <si>
-    <t>${sex}</t>
-  </si>
-  <si>
-    <t>PRESENT</t>
-  </si>
-  <si>
-    <t>${taxonName}</t>
-  </si>
-  <si>
-    <t>!references.ref</t>
-  </si>
-  <si>
-    <t>iNaturalist:${iNaturalistTaxonId}</t>
-  </si>
-  <si>
-    <t>${scientificName}</t>
-  </si>
-  <si>
-    <t>${kingdom}</t>
-  </si>
-  <si>
-    <t>${phylum}</t>
-  </si>
-  <si>
-    <t>${class}</t>
-  </si>
-  <si>
-    <t>${order}</t>
-  </si>
-  <si>
-    <t>${family}</t>
-  </si>
-  <si>
-    <t>${genus}</t>
-  </si>
-  <si>
-    <t>${subgenus}</t>
-  </si>
-  <si>
-    <t>Galiano Island</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>British Columbia</t>
-  </si>
-  <si>
-    <t>${locality}</t>
-  </si>
-  <si>
-    <t>${depth}</t>
-  </si>
-  <si>
-    <t>${latitude}</t>
-  </si>
-  <si>
-    <t>${longitude}</t>
   </si>
   <si>
     <t>!references.samplingProtocol</t>
@@ -1836,301 +1836,301 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
         <v>207</v>
       </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
         <v>208</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>209</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
         <v>210</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
         <v>211</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
         <v>212</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
         <v>213</v>
       </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="s">
         <v>214</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
         <v>215</v>
       </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>216</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>217</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>218</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>219</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>220</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>221</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK2" t="s">
         <v>222</v>
       </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>223</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>224</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>225</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>226</v>
       </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
         <v>227</v>
       </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH2" t="s">
         <v>228</v>
       </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
+      <c r="CI2" t="s">
         <v>229</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>207</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
         <v>230</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>208</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
       </c>
       <c r="DA2" t="s">
         <v>36</v>
@@ -2253,7 +2253,7 @@
         <v>36</v>
       </c>
       <c r="EO2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="EP2" t="s">
         <v>36</v>

--- a/data/dataPaper-I-in/arphified/Brachiopoda.xlsx
+++ b/data/dataPaper-I-in/arphified/Brachiopoda.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="246">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -703,6 +703,9 @@
   </si>
   <si>
     <t>${longitude}</t>
+  </si>
+  <si>
+    <t>${coordinateUncertaintyInMeters}</t>
   </si>
   <si>
     <t>Confidence: ${confidence}</t>
@@ -2085,7 +2088,7 @@
         <v>36</v>
       </c>
       <c r="CK2" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="CL2" t="s">
         <v>36</v>
@@ -2130,7 +2133,7 @@
         <v>36</v>
       </c>
       <c r="CZ2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="DA2" t="s">
         <v>36</v>
@@ -2193,13 +2196,13 @@
         <v>36</v>
       </c>
       <c r="DU2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="DV2" t="s">
         <v>36</v>
       </c>
       <c r="DW2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="DX2" t="s">
         <v>36</v>
@@ -2211,13 +2214,13 @@
         <v>36</v>
       </c>
       <c r="EA2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EB2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="EC2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="ED2" t="s">
         <v>36</v>
@@ -2226,13 +2229,13 @@
         <v>36</v>
       </c>
       <c r="EF2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="EG2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="EH2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="EI2" t="s">
         <v>36</v>
@@ -2265,19 +2268,19 @@
         <v>36</v>
       </c>
       <c r="ES2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="ET2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="EU2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="EV2" t="s">
         <v>36</v>
       </c>
       <c r="EW2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="EX2" t="s">
         <v>36</v>
@@ -2308,10 +2311,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Brachiopoda.xlsx
+++ b/data/dataPaper-I-in/arphified/Brachiopoda.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="254">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -285,6 +285,15 @@
     <t>order</t>
   </si>
   <si>
+    <t>suborder</t>
+  </si>
+  <si>
+    <t>infraorder</t>
+  </si>
+  <si>
+    <t>superfamily</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
@@ -657,7 +666,7 @@
     <t>iNaturalist:${iNaturalistTaxonId}</t>
   </si>
   <si>
-    <t>${scientificName}</t>
+    <t>${summary.taxonName}</t>
   </si>
   <si>
     <t>${kingdom}</t>
@@ -672,6 +681,15 @@
     <t>${order}</t>
   </si>
   <si>
+    <t>${suborder}</t>
+  </si>
+  <si>
+    <t>${infraorder}</t>
+  </si>
+  <si>
+    <t>${superfamily}</t>
+  </si>
+  <si>
     <t>${family}</t>
   </si>
   <si>
@@ -681,6 +699,9 @@
     <t>${subgenus}</t>
   </si>
   <si>
+    <t>${summary.Author}</t>
+  </si>
+  <si>
     <t>Galiano Island</t>
   </si>
   <si>
@@ -715,6 +736,9 @@
   </si>
   <si>
     <t>!Date:YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>!Date:HH:mm:ss</t>
   </si>
   <si>
     <t>!Date:YYYY</t>
@@ -1346,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FA2"/>
+  <dimension ref="A1:FD2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1821,19 +1845,28 @@
       <c r="FA1" t="s">
         <v>203</v>
       </c>
+      <c r="FB1" t="s">
+        <v>204</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>205</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="2" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -1845,16 +1878,16 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I2" t="s">
         <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L2" t="s">
         <v>36</v>
@@ -1869,429 +1902,438 @@
         <v>36</v>
       </c>
       <c r="P2" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>214</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>215</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>229</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>231</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>232</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>234</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>235</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>236</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>237</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
         <v>210</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
-        <v>211</v>
-      </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
-        <v>212</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>214</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>238</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>239</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>240</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>241</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>242</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>243</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>244</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>245</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>246</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>247</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER2" t="s">
         <v>215</v>
       </c>
-      <c r="AO2" t="s">
-        <v>216</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>217</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>218</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>222</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>223</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>224</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>225</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>226</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>227</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>228</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>229</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>230</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>207</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>231</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>232</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>233</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>234</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>235</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>236</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>237</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>238</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>239</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>212</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>36</v>
-      </c>
       <c r="ES2" t="s">
-        <v>240</v>
+        <v>36</v>
       </c>
       <c r="ET2" t="s">
-        <v>241</v>
+        <v>36</v>
       </c>
       <c r="EU2" t="s">
-        <v>242</v>
+        <v>36</v>
       </c>
       <c r="EV2" t="s">
-        <v>36</v>
+        <v>248</v>
       </c>
       <c r="EW2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="EX2" t="s">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="EY2" t="s">
         <v>36</v>
       </c>
       <c r="EZ2" t="s">
-        <v>36</v>
+        <v>251</v>
       </c>
       <c r="FA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FD2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2311,10 +2353,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Brachiopoda.xlsx
+++ b/data/dataPaper-I-in/arphified/Brachiopoda.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="247">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -285,15 +285,6 @@
     <t>order</t>
   </si>
   <si>
-    <t>suborder</t>
-  </si>
-  <si>
-    <t>infraorder</t>
-  </si>
-  <si>
-    <t>superfamily</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
@@ -636,9 +627,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>${iNaturalistTaxonId}</t>
-  </si>
-  <si>
     <t>${gbifOccurrenceID}</t>
   </si>
   <si>
@@ -681,15 +669,6 @@
     <t>${order}</t>
   </si>
   <si>
-    <t>${suborder}</t>
-  </si>
-  <si>
-    <t>${infraorder}</t>
-  </si>
-  <si>
-    <t>${superfamily}</t>
-  </si>
-  <si>
     <t>${family}</t>
   </si>
   <si>
@@ -699,7 +678,7 @@
     <t>${subgenus}</t>
   </si>
   <si>
-    <t>${summary.Author}</t>
+    <t>${summary.authority}</t>
   </si>
   <si>
     <t>Galiano Island</t>
@@ -1370,970 +1349,946 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FD2"/>
+  <dimension ref="A1:EZ2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="W1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AN1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AO1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AQ1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AR1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AS1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AT1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AU1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AV1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AW1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AX1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AY1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AZ1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BA1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BB1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BC1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BD1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BE1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BF1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BG1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BH1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BI1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BJ1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BK1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BL1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BM1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BN1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BO1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BP1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BQ1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BR1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BS1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BT1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BU1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BV1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BW1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BX1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BY1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BZ1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="CA1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CB1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CC1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="CD1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CE1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CF1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="CG1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CH1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="CI1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="CJ1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="CK1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="CL1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="CM1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CN1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CO1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CP1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CQ1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CR1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="CS1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CT1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CU1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CV1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CW1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CX1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CY1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CZ1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DA1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DB1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DC1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="DD1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="DE1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="DF1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DG1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DH1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="DI1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DJ1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DK1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="DL1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="DM1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DN1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="DO1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="DP1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="DQ1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="DR1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="DS1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="DT1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="DU1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="DV1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="DW1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="DX1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="DY1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="DZ1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="EA1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EB1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="EC1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="ED1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="EE1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EF1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EG1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EH1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="EI1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EJ1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EK1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="EL1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="EM1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EN1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="EO1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EP1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EQ1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="ER1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="ES1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="ET1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="EU1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="EV1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="EW1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EX1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="EY1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="EZ1" t="s">
-        <v>202</v>
-      </c>
-      <c r="FA1" t="s">
         <v>203</v>
       </c>
-      <c r="FB1" t="s">
+    </row>
+    <row r="2" spans="1:156" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>204</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="C2" t="s">
         <v>205</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>207</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
         <v>208</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>209</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>210</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
         <v>211</v>
       </c>
-      <c r="K2" t="s">
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>212</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
         <v>213</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
         <v>214</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="AN2" t="s">
         <v>215</v>
       </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AO2" t="s">
         <v>216</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AP2" t="s">
         <v>217</v>
       </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>218</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>219</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>220</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" t="s">
         <v>221</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>222</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BK2" t="s">
         <v>223</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BL2" t="s">
         <v>224</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BM2" t="s">
         <v>225</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" t="s">
         <v>226</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" t="s">
         <v>227</v>
       </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
         <v>228</v>
       </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN2" t="s">
+      <c r="CH2" t="s">
         <v>229</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="CI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ2" t="s">
         <v>230</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>206</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
         <v>231</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
         <v>232</v>
       </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
+      <c r="DU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DV2" t="s">
         <v>233</v>
       </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
+      <c r="DW2" t="s">
         <v>234</v>
       </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
+      <c r="DX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ2" t="s">
         <v>235</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="EA2" t="s">
         <v>236</v>
       </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
+      <c r="EB2" t="s">
         <v>237</v>
       </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>210</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EE2" t="s">
         <v>238</v>
       </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DX2" t="s">
+      <c r="EF2" t="s">
         <v>239</v>
       </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
+      <c r="EG2" t="s">
         <v>240</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>211</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER2" t="s">
         <v>241</v>
       </c>
-      <c r="EB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
+      <c r="ES2" t="s">
         <v>242</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="ET2" t="s">
         <v>243</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EV2" t="s">
         <v>244</v>
       </c>
-      <c r="EG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>245</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>246</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>247</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>215</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>248</v>
-      </c>
       <c r="EW2" t="s">
-        <v>249</v>
+        <v>36</v>
       </c>
       <c r="EX2" t="s">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="EY2" t="s">
         <v>36</v>
       </c>
       <c r="EZ2" t="s">
-        <v>251</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FD2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2353,10 +2308,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Brachiopoda.xlsx
+++ b/data/dataPaper-I-in/arphified/Brachiopoda.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="245">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -291,9 +291,6 @@
     <t>genus</t>
   </si>
   <si>
-    <t>subgenus</t>
-  </si>
-  <si>
     <t>specificEpithet</t>
   </si>
   <si>
@@ -673,9 +670,6 @@
   </si>
   <si>
     <t>${genus}</t>
-  </si>
-  <si>
-    <t>${subgenus}</t>
   </si>
   <si>
     <t>${summary.authority}</t>
@@ -1349,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EZ2"/>
+  <dimension ref="A1:EY2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1818,466 +1812,463 @@
       <c r="EY1" t="s">
         <v>202</v>
       </c>
-      <c r="EZ1" t="s">
+    </row>
+    <row r="2" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="2" spans="1:156" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>204</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>205</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>206</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>207</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>208</v>
       </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>209</v>
       </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
         <v>210</v>
       </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>211</v>
       </c>
-      <c r="V2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
         <v>212</v>
       </c>
-      <c r="Y2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
         <v>213</v>
       </c>
-      <c r="AG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>214</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>215</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>216</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>217</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>218</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
         <v>219</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
         <v>220</v>
       </c>
-      <c r="AT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
+      <c r="BJ2" t="s">
         <v>221</v>
       </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>222</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>223</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" t="s">
         <v>224</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
         <v>225</v>
       </c>
-      <c r="BN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
         <v>226</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
+      <c r="CG2" t="s">
         <v>227</v>
       </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2" t="s">
         <v>228</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>205</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
         <v>229</v>
       </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
         <v>230</v>
       </c>
-      <c r="CK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>206</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
         <v>231</v>
       </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
+      <c r="DV2" t="s">
         <v>232</v>
       </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY2" t="s">
         <v>233</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="DZ2" t="s">
         <v>234</v>
       </c>
-      <c r="DX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
+      <c r="EA2" t="s">
         <v>235</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
         <v>236</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="EE2" t="s">
         <v>237</v>
       </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EE2" t="s">
+      <c r="EF2" t="s">
         <v>238</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>210</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
         <v>239</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="ER2" t="s">
         <v>240</v>
       </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>211</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
+      <c r="ES2" t="s">
         <v>241</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="ET2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU2" t="s">
         <v>242</v>
       </c>
-      <c r="ET2" t="s">
-        <v>243</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>36</v>
-      </c>
       <c r="EV2" t="s">
-        <v>244</v>
+        <v>36</v>
       </c>
       <c r="EW2" t="s">
         <v>36</v>
@@ -2286,9 +2277,6 @@
         <v>36</v>
       </c>
       <c r="EY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EZ2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2308,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Brachiopoda.xlsx
+++ b/data/dataPaper-I-in/arphified/Brachiopoda.xlsx
@@ -2700,7 +2700,7 @@
         <v>36</v>
       </c>
       <c r="CO2" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP2" t="s">
         <v>36</v>
@@ -3167,7 +3167,7 @@
         <v>36</v>
       </c>
       <c r="CO3" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP3" t="s">
         <v>36</v>
@@ -3634,7 +3634,7 @@
         <v>36</v>
       </c>
       <c r="CO4" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP4" t="s">
         <v>36</v>
@@ -4101,7 +4101,7 @@
         <v>36</v>
       </c>
       <c r="CO5" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP5" t="s">
         <v>36</v>
@@ -4568,7 +4568,7 @@
         <v>36</v>
       </c>
       <c r="CO6" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP6" t="s">
         <v>36</v>
@@ -5035,7 +5035,7 @@
         <v>36</v>
       </c>
       <c r="CO7" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP7" t="s">
         <v>36</v>
@@ -5502,7 +5502,7 @@
         <v>36</v>
       </c>
       <c r="CO8" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP8" t="s">
         <v>36</v>
@@ -5969,7 +5969,7 @@
         <v>36</v>
       </c>
       <c r="CO9" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP9" t="s">
         <v>36</v>
@@ -6436,7 +6436,7 @@
         <v>36</v>
       </c>
       <c r="CO10" t="s">
-        <v>282</v>
+        <v>36</v>
       </c>
       <c r="CP10" t="s">
         <v>36</v>
@@ -6903,7 +6903,7 @@
         <v>36</v>
       </c>
       <c r="CO11" t="s">
-        <v>282</v>
+        <v>36</v>
       </c>
       <c r="CP11" t="s">
         <v>36</v>
@@ -7370,7 +7370,7 @@
         <v>36</v>
       </c>
       <c r="CO12" t="s">
-        <v>282</v>
+        <v>36</v>
       </c>
       <c r="CP12" t="s">
         <v>36</v>
@@ -7837,7 +7837,7 @@
         <v>36</v>
       </c>
       <c r="CO13" t="s">
-        <v>282</v>
+        <v>36</v>
       </c>
       <c r="CP13" t="s">
         <v>36</v>
@@ -8304,7 +8304,7 @@
         <v>36</v>
       </c>
       <c r="CO14" t="s">
-        <v>282</v>
+        <v>36</v>
       </c>
       <c r="CP14" t="s">
         <v>36</v>
@@ -8771,7 +8771,7 @@
         <v>36</v>
       </c>
       <c r="CO15" t="s">
-        <v>282</v>
+        <v>36</v>
       </c>
       <c r="CP15" t="s">
         <v>36</v>
@@ -9238,7 +9238,7 @@
         <v>36</v>
       </c>
       <c r="CO16" t="s">
-        <v>282</v>
+        <v>36</v>
       </c>
       <c r="CP16" t="s">
         <v>36</v>
@@ -9705,7 +9705,7 @@
         <v>36</v>
       </c>
       <c r="CO17" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP17" t="s">
         <v>36</v>
@@ -10172,7 +10172,7 @@
         <v>36</v>
       </c>
       <c r="CO18" t="s">
-        <v>282</v>
+        <v>36</v>
       </c>
       <c r="CP18" t="s">
         <v>36</v>
@@ -10639,7 +10639,7 @@
         <v>36</v>
       </c>
       <c r="CO19" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP19" t="s">
         <v>36</v>
@@ -11106,7 +11106,7 @@
         <v>36</v>
       </c>
       <c r="CO20" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP20" t="s">
         <v>36</v>
@@ -11573,7 +11573,7 @@
         <v>36</v>
       </c>
       <c r="CO21" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP21" t="s">
         <v>36</v>
@@ -12040,7 +12040,7 @@
         <v>36</v>
       </c>
       <c r="CO22" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP22" t="s">
         <v>36</v>
@@ -12507,7 +12507,7 @@
         <v>36</v>
       </c>
       <c r="CO23" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP23" t="s">
         <v>36</v>
@@ -12974,7 +12974,7 @@
         <v>36</v>
       </c>
       <c r="CO24" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP24" t="s">
         <v>36</v>
@@ -13441,7 +13441,7 @@
         <v>36</v>
       </c>
       <c r="CO25" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP25" t="s">
         <v>36</v>
@@ -13908,7 +13908,7 @@
         <v>36</v>
       </c>
       <c r="CO26" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP26" t="s">
         <v>36</v>
@@ -14375,7 +14375,7 @@
         <v>36</v>
       </c>
       <c r="CO27" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP27" t="s">
         <v>36</v>
@@ -14842,7 +14842,7 @@
         <v>36</v>
       </c>
       <c r="CO28" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP28" t="s">
         <v>36</v>
@@ -15309,7 +15309,7 @@
         <v>36</v>
       </c>
       <c r="CO29" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP29" t="s">
         <v>36</v>
@@ -15776,7 +15776,7 @@
         <v>36</v>
       </c>
       <c r="CO30" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP30" t="s">
         <v>36</v>
@@ -16243,7 +16243,7 @@
         <v>36</v>
       </c>
       <c r="CO31" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP31" t="s">
         <v>36</v>
@@ -16710,7 +16710,7 @@
         <v>36</v>
       </c>
       <c r="CO32" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP32" t="s">
         <v>36</v>
@@ -17177,7 +17177,7 @@
         <v>36</v>
       </c>
       <c r="CO33" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP33" t="s">
         <v>36</v>
@@ -17644,7 +17644,7 @@
         <v>36</v>
       </c>
       <c r="CO34" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP34" t="s">
         <v>36</v>
@@ -18111,7 +18111,7 @@
         <v>36</v>
       </c>
       <c r="CO35" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP35" t="s">
         <v>36</v>
@@ -18578,7 +18578,7 @@
         <v>36</v>
       </c>
       <c r="CO36" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP36" t="s">
         <v>36</v>
@@ -19045,7 +19045,7 @@
         <v>36</v>
       </c>
       <c r="CO37" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP37" t="s">
         <v>36</v>
@@ -19512,7 +19512,7 @@
         <v>36</v>
       </c>
       <c r="CO38" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP38" t="s">
         <v>36</v>
@@ -19979,7 +19979,7 @@
         <v>36</v>
       </c>
       <c r="CO39" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP39" t="s">
         <v>36</v>
@@ -20446,7 +20446,7 @@
         <v>36</v>
       </c>
       <c r="CO40" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP40" t="s">
         <v>36</v>
@@ -20913,7 +20913,7 @@
         <v>36</v>
       </c>
       <c r="CO41" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="CP41" t="s">
         <v>36</v>
@@ -21380,7 +21380,7 @@
         <v>36</v>
       </c>
       <c r="CO42" t="s">
-        <v>439</v>
+        <v>36</v>
       </c>
       <c r="CP42" t="s">
         <v>36</v>
